--- a/download/rankingquestion_user_details.xlsx
+++ b/download/rankingquestion_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>EytsV816</t>
-  </si>
-  <si>
-    <t>opghctz15</t>
-  </si>
-  <si>
-    <t>a6!zV8K$</t>
+    <t>VOxrJ584</t>
+  </si>
+  <si>
+    <t>kcmoyof93</t>
+  </si>
+  <si>
+    <t>S&amp;Q49kt$</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>cwqzPCpm</t>
-  </si>
-  <si>
-    <t>shAl</t>
+    <t>EveOCaMs</t>
+  </si>
+  <si>
+    <t>rycI</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>RNOVt437</t>
-  </si>
-  <si>
-    <t>dddzamh71</t>
-  </si>
-  <si>
-    <t>T#m75V$u</t>
-  </si>
-  <si>
-    <t>lgmAPJfM</t>
-  </si>
-  <si>
-    <t>YVDd</t>
   </si>
 </sst>
 </file>
@@ -442,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>2012454339</v>
+        <v>2012454477</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -499,32 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2012454340</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
